--- a/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_insurance_life.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,100 +591,97 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08600000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G2">
-        <v>0.04052892561983471</v>
+        <v>-0.07651122625215889</v>
       </c>
       <c r="H2">
-        <v>0.04052892561983471</v>
+        <v>-0.07651122625215889</v>
       </c>
       <c r="I2">
-        <v>-0.02473242959332275</v>
+        <v>-0.04267358654449739</v>
       </c>
       <c r="J2">
-        <v>-0.02473242959332275</v>
+        <v>-0.04267358654449739</v>
       </c>
       <c r="K2">
-        <v>-3.74</v>
+        <v>-5.48</v>
       </c>
       <c r="L2">
-        <v>-0.03090909090909091</v>
+        <v>-0.04732297063903282</v>
       </c>
       <c r="M2">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.03462469733656175</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.7647058823529411</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03462469733656175</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.7647058823529411</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>10.62</v>
+        <v>14.4</v>
       </c>
       <c r="V2">
-        <v>0.1285714285714286</v>
+        <v>0.22052067381317</v>
       </c>
       <c r="W2">
-        <v>-0.04837873800686324</v>
+        <v>-0.144973544973545</v>
       </c>
       <c r="X2">
-        <v>0.07753751904490228</v>
+        <v>0.06200957225265333</v>
       </c>
       <c r="Y2">
-        <v>-0.1259162570517655</v>
+        <v>-0.2069831172261983</v>
       </c>
       <c r="Z2">
-        <v>1.70067740599938</v>
+        <v>2.857283387175775</v>
       </c>
       <c r="AA2">
-        <v>-0.03649532628136185</v>
+        <v>-0.1219305299048001</v>
       </c>
       <c r="AB2">
-        <v>0.07167934625219169</v>
+        <v>0.05730172525398909</v>
       </c>
       <c r="AC2">
-        <v>-0.1081746725335535</v>
+        <v>-0.1792322551587892</v>
       </c>
       <c r="AD2">
-        <v>11.363</v>
+        <v>7.29</v>
       </c>
       <c r="AE2">
-        <v>0.05811990396026371</v>
+        <v>0.0580066092639872</v>
       </c>
       <c r="AF2">
-        <v>11.42111990396026</v>
+        <v>7.348006609263988</v>
       </c>
       <c r="AG2">
-        <v>0.8011199039602648</v>
+        <v>-7.051993390736013</v>
       </c>
       <c r="AH2">
-        <v>0.1214739828203131</v>
+        <v>0.1011453300953612</v>
       </c>
       <c r="AI2">
-        <v>0.1399284880849339</v>
+        <v>0.177711266197236</v>
       </c>
       <c r="AJ2">
-        <v>0.009605625258782934</v>
+        <v>-0.1210684073369549</v>
       </c>
       <c r="AK2">
-        <v>0.01128320095575817</v>
+        <v>-0.261688869718168</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -693,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-5.146286231884058</v>
+        <v>-1.864450127877238</v>
       </c>
       <c r="AP2">
-        <v>-0.3628260434602648</v>
+        <v>1.803578872311001</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AXA Green Crescent Insurance Company PJSC (ADX:AXAGCIC)</t>
+          <t>Takaful Emarat - Insurance (PSC) (DFM:TAKAFUL-EM)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,25 +713,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.152</v>
+        <v>0.105</v>
       </c>
       <c r="G3">
-        <v>0.001320754716981132</v>
+        <v>-0.07651122625215889</v>
       </c>
       <c r="H3">
-        <v>0.001320754716981132</v>
+        <v>-0.07651122625215889</v>
       </c>
       <c r="I3">
-        <v>0.009339622641509435</v>
+        <v>-0.04267358654449739</v>
       </c>
       <c r="J3">
-        <v>0.009339622641509435</v>
+        <v>-0.04267358654449739</v>
       </c>
       <c r="K3">
-        <v>-0.31</v>
+        <v>-5.48</v>
       </c>
       <c r="L3">
-        <v>-0.02924528301886792</v>
+        <v>-0.04732297063903282</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -758,55 +755,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.09</v>
+        <v>14.4</v>
       </c>
       <c r="V3">
-        <v>0.07182130584192439</v>
+        <v>0.22052067381317</v>
       </c>
       <c r="W3">
-        <v>-0.009480122324159021</v>
+        <v>-0.144973544973545</v>
       </c>
       <c r="X3">
-        <v>0.07497355045286835</v>
+        <v>0.06200957225265333</v>
       </c>
       <c r="Y3">
-        <v>-0.08445367277702738</v>
+        <v>-0.2069831172261983</v>
       </c>
       <c r="Z3">
-        <v>0.3465184700882641</v>
+        <v>2.857283387175775</v>
       </c>
       <c r="AA3">
-        <v>0.003236351748937561</v>
+        <v>-0.1219305299048001</v>
       </c>
       <c r="AB3">
-        <v>0.074652058439452</v>
+        <v>0.05730172525398909</v>
       </c>
       <c r="AC3">
-        <v>-0.07141570669051443</v>
+        <v>-0.1792322551587892</v>
       </c>
       <c r="AD3">
-        <v>0.163</v>
+        <v>7.29</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.0580066092639872</v>
       </c>
       <c r="AF3">
-        <v>0.163</v>
+        <v>7.348006609263988</v>
       </c>
       <c r="AG3">
-        <v>-1.927</v>
+        <v>-7.051993390736013</v>
       </c>
       <c r="AH3">
-        <v>0.005570173939787444</v>
+        <v>0.1011453300953612</v>
       </c>
       <c r="AI3">
-        <v>0.005005681294721003</v>
+        <v>0.177711266197236</v>
       </c>
       <c r="AJ3">
-        <v>-0.0709159827770213</v>
+        <v>-0.1210684073369549</v>
       </c>
       <c r="AK3">
-        <v>-0.06323630755094674</v>
+        <v>-0.261688869718168</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -815,135 +812,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.006172839506173</v>
+        <v>-1.864450127877238</v>
       </c>
       <c r="AP3">
-        <v>-11.89506172839506</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Takaful Emarat - Insurance (PSC) (DFM:TAKAFUL-EM)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Insurance (Life)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.324</v>
-      </c>
-      <c r="G4">
-        <v>0.04429347826086956</v>
-      </c>
-      <c r="H4">
-        <v>0.04429347826086956</v>
-      </c>
-      <c r="I4">
-        <v>-0.02800384040572511</v>
-      </c>
-      <c r="J4">
-        <v>-0.02800384040572511</v>
-      </c>
-      <c r="K4">
-        <v>-3.43</v>
-      </c>
-      <c r="L4">
-        <v>-0.03106884057971014</v>
-      </c>
-      <c r="M4">
-        <v>2.86</v>
-      </c>
-      <c r="N4">
-        <v>0.05345794392523364</v>
-      </c>
-      <c r="O4">
-        <v>-0.8338192419825072</v>
-      </c>
-      <c r="P4">
-        <v>2.86</v>
-      </c>
-      <c r="Q4">
-        <v>0.05345794392523364</v>
-      </c>
-      <c r="R4">
-        <v>-0.8338192419825072</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="V4">
-        <v>0.1594392523364486</v>
-      </c>
-      <c r="W4">
-        <v>-0.08727735368956745</v>
-      </c>
-      <c r="X4">
-        <v>0.08010148763693618</v>
-      </c>
-      <c r="Y4">
-        <v>-0.1673788413265036</v>
-      </c>
-      <c r="Z4">
-        <v>2.722019666133984</v>
-      </c>
-      <c r="AA4">
-        <v>-0.07622700431166125</v>
-      </c>
-      <c r="AB4">
-        <v>0.06870663406493137</v>
-      </c>
-      <c r="AC4">
-        <v>-0.1449336383765926</v>
-      </c>
-      <c r="AD4">
-        <v>11.2</v>
-      </c>
-      <c r="AE4">
-        <v>0.05811990396026371</v>
-      </c>
-      <c r="AF4">
-        <v>11.25811990396026</v>
-      </c>
-      <c r="AG4">
-        <v>2.728119903960264</v>
-      </c>
-      <c r="AH4">
-        <v>0.173848776348922</v>
-      </c>
-      <c r="AI4">
-        <v>0.2294853517827421</v>
-      </c>
-      <c r="AJ4">
-        <v>0.04851878221466404</v>
-      </c>
-      <c r="AK4">
-        <v>0.06731424774761591</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>-4.725738396624472</v>
-      </c>
-      <c r="AP4">
-        <v>-1.151105444708972</v>
+        <v>1.803578872311001</v>
       </c>
     </row>
   </sheetData>
